--- a/data/seuk_04.xlsx
+++ b/data/seuk_04.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26330"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B44D8915-9BC1-4157-AC29-E8A7AB2D58CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{42FB70DD-DD94-4BC0-B45D-7AA14B7E65C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="14">
   <si>
     <t>﻿Date</t>
   </si>
@@ -76,13 +76,19 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -105,9 +111,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -422,15 +429,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+      <selection activeCell="K44" sqref="K44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="3.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -509,7 +522,7 @@
         <v>8</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H28" si="0">IF(F3&gt;G3,1,2)</f>
+        <f t="shared" ref="H3:H48" si="0">IF(F3&gt;G3,1,2)</f>
         <v>2</v>
       </c>
     </row>
@@ -1103,6 +1116,627 @@
         <v>8</v>
       </c>
       <c r="H25">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="1">
+        <v>45021</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" t="s">
+        <v>13</v>
+      </c>
+      <c r="E26" t="s">
+        <v>12</v>
+      </c>
+      <c r="F26">
+        <v>8</v>
+      </c>
+      <c r="G26">
+        <v>2</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="1">
+        <v>45021</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27">
+        <v>8</v>
+      </c>
+      <c r="G27">
+        <v>3</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="1">
+        <v>45021</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28" t="s">
+        <v>13</v>
+      </c>
+      <c r="E28" t="s">
+        <v>11</v>
+      </c>
+      <c r="F28">
+        <v>8</v>
+      </c>
+      <c r="G28">
+        <v>3</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="1">
+        <v>45021</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" t="s">
+        <v>11</v>
+      </c>
+      <c r="E29" t="s">
+        <v>13</v>
+      </c>
+      <c r="F29">
+        <v>8</v>
+      </c>
+      <c r="G29">
+        <v>3</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="1">
+        <v>45021</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30" t="s">
+        <v>11</v>
+      </c>
+      <c r="E30" t="s">
+        <v>12</v>
+      </c>
+      <c r="F30">
+        <v>8</v>
+      </c>
+      <c r="G30">
+        <v>2</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="1">
+        <v>45021</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" t="s">
+        <v>13</v>
+      </c>
+      <c r="D31" t="s">
+        <v>12</v>
+      </c>
+      <c r="E31" t="s">
+        <v>11</v>
+      </c>
+      <c r="F31">
+        <v>8</v>
+      </c>
+      <c r="G31">
+        <v>3</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="1">
+        <v>45021</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" t="s">
+        <v>11</v>
+      </c>
+      <c r="D32" t="s">
+        <v>12</v>
+      </c>
+      <c r="E32" t="s">
+        <v>13</v>
+      </c>
+      <c r="F32">
+        <v>7</v>
+      </c>
+      <c r="G32">
+        <v>8</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="1">
+        <v>45021</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33" t="s">
+        <v>13</v>
+      </c>
+      <c r="E33" t="s">
+        <v>12</v>
+      </c>
+      <c r="F33">
+        <v>8</v>
+      </c>
+      <c r="G33">
+        <v>4</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="1">
+        <v>45022</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" t="s">
+        <v>10</v>
+      </c>
+      <c r="D34" t="s">
+        <v>9</v>
+      </c>
+      <c r="E34" t="s">
+        <v>11</v>
+      </c>
+      <c r="F34">
+        <v>8</v>
+      </c>
+      <c r="G34">
+        <v>1</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="2">
+        <v>45022</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35" t="s">
+        <v>8</v>
+      </c>
+      <c r="D35" t="s">
+        <v>10</v>
+      </c>
+      <c r="E35" t="s">
+        <v>11</v>
+      </c>
+      <c r="F35">
+        <v>8</v>
+      </c>
+      <c r="G35">
+        <v>2</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="1">
+        <v>45022</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C36" t="s">
+        <v>12</v>
+      </c>
+      <c r="D36" t="s">
+        <v>10</v>
+      </c>
+      <c r="E36" t="s">
+        <v>9</v>
+      </c>
+      <c r="F36">
+        <v>2</v>
+      </c>
+      <c r="G36">
+        <v>8</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="2">
+        <v>45022</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" t="s">
+        <v>11</v>
+      </c>
+      <c r="D37" t="s">
+        <v>12</v>
+      </c>
+      <c r="E37" t="s">
+        <v>10</v>
+      </c>
+      <c r="F37">
+        <v>8</v>
+      </c>
+      <c r="G37">
+        <v>2</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="1">
+        <v>45022</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C38" t="s">
+        <v>10</v>
+      </c>
+      <c r="D38" t="s">
+        <v>9</v>
+      </c>
+      <c r="E38" t="s">
+        <v>12</v>
+      </c>
+      <c r="F38">
+        <v>6</v>
+      </c>
+      <c r="G38">
+        <v>8</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="2">
+        <v>45022</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" t="s">
+        <v>11</v>
+      </c>
+      <c r="D39" t="s">
+        <v>9</v>
+      </c>
+      <c r="E39" t="s">
+        <v>8</v>
+      </c>
+      <c r="F39">
+        <v>8</v>
+      </c>
+      <c r="G39">
+        <v>7</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="1">
+        <v>45022</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C40" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" t="s">
+        <v>8</v>
+      </c>
+      <c r="E40" t="s">
+        <v>12</v>
+      </c>
+      <c r="F40">
+        <v>3</v>
+      </c>
+      <c r="G40">
+        <v>8</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="2">
+        <v>45022</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C41" t="s">
+        <v>11</v>
+      </c>
+      <c r="D41" t="s">
+        <v>10</v>
+      </c>
+      <c r="E41" t="s">
+        <v>8</v>
+      </c>
+      <c r="F41">
+        <v>2</v>
+      </c>
+      <c r="G41">
+        <v>8</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="1">
+        <v>45022</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C42" t="s">
+        <v>12</v>
+      </c>
+      <c r="D42" t="s">
+        <v>9</v>
+      </c>
+      <c r="E42" t="s">
+        <v>11</v>
+      </c>
+      <c r="F42">
+        <v>6</v>
+      </c>
+      <c r="G42">
+        <v>8</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="2">
+        <v>45022</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C43" t="s">
+        <v>8</v>
+      </c>
+      <c r="D43" t="s">
+        <v>11</v>
+      </c>
+      <c r="E43" t="s">
+        <v>10</v>
+      </c>
+      <c r="F43">
+        <v>8</v>
+      </c>
+      <c r="G43">
+        <v>5</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="1">
+        <v>45022</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C44" t="s">
+        <v>10</v>
+      </c>
+      <c r="D44" t="s">
+        <v>9</v>
+      </c>
+      <c r="E44" t="s">
+        <v>12</v>
+      </c>
+      <c r="F44">
+        <v>5</v>
+      </c>
+      <c r="G44">
+        <v>8</v>
+      </c>
+      <c r="H44">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="2">
+        <v>45022</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C45" t="s">
+        <v>11</v>
+      </c>
+      <c r="D45" t="s">
+        <v>10</v>
+      </c>
+      <c r="E45" t="s">
+        <v>9</v>
+      </c>
+      <c r="F45">
+        <v>8</v>
+      </c>
+      <c r="G45">
+        <v>2</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="1">
+        <v>45022</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C46" t="s">
+        <v>9</v>
+      </c>
+      <c r="D46" t="s">
+        <v>12</v>
+      </c>
+      <c r="E46" t="s">
+        <v>10</v>
+      </c>
+      <c r="F46">
+        <v>8</v>
+      </c>
+      <c r="G46">
+        <v>4</v>
+      </c>
+      <c r="H46">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="2">
+        <v>45022</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C47" t="s">
+        <v>12</v>
+      </c>
+      <c r="D47" t="s">
+        <v>9</v>
+      </c>
+      <c r="E47" t="s">
+        <v>8</v>
+      </c>
+      <c r="F47">
+        <v>8</v>
+      </c>
+      <c r="G47">
+        <v>5</v>
+      </c>
+      <c r="H47">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="1">
+        <v>45022</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C48" t="s">
+        <v>11</v>
+      </c>
+      <c r="D48" t="s">
+        <v>8</v>
+      </c>
+      <c r="E48" t="s">
+        <v>9</v>
+      </c>
+      <c r="F48">
+        <v>5</v>
+      </c>
+      <c r="G48">
+        <v>8</v>
+      </c>
+      <c r="H48">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>

--- a/data/seuk_04.xlsx
+++ b/data/seuk_04.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="14">
   <si>
     <t xml:space="preserve">﻿Date</t>
   </si>
@@ -178,10 +178,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H62"/>
+  <dimension ref="A1:O75"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M56" activeCellId="0" sqref="M56"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A40" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K70" activeCellId="0" sqref="K70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1410,7 +1410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="n">
         <v>45022</v>
       </c>
@@ -1437,7 +1437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="2" t="n">
         <v>45022</v>
       </c>
@@ -1787,10 +1787,440 @@
         <f aca="false">IF(F59&gt;G59,1,2)</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="O59" s="1"/>
+    </row>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="1" t="n">
+        <v>45034</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C60" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D60" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E60" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F60" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="G60" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="H60" s="0" t="n">
+        <f aca="false">IF(F60&gt;G60,1,2)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="1" t="n">
+        <v>45034</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C61" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D61" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E61" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F61" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="G61" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="H61" s="0" t="n">
+        <f aca="false">IF(F61&gt;G61,1,2)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="1" t="n">
+        <v>45034</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C62" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D62" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E62" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F62" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="G62" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H62" s="0" t="n">
+        <f aca="false">IF(F62&gt;G62,1,2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="1" t="n">
+        <v>45034</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C63" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D63" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E63" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F63" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="G63" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="H63" s="0" t="n">
+        <f aca="false">IF(F63&gt;G63,1,2)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="1" t="n">
+        <v>45034</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C64" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D64" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E64" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F64" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="G64" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="H64" s="0" t="n">
+        <f aca="false">IF(F64&gt;G64,1,2)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="1" t="n">
+        <v>45034</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C65" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D65" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E65" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F65" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="G65" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H65" s="0" t="n">
+        <f aca="false">IF(F65&gt;G65,1,2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="1" t="n">
+        <v>45034</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C66" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D66" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E66" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F66" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="G66" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="H66" s="0" t="n">
+        <f aca="false">IF(F66&gt;G66,1,2)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="1" t="n">
+        <v>45034</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C67" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D67" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E67" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F67" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="G67" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="H67" s="0" t="n">
+        <f aca="false">IF(F67&gt;G67,1,2)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="1" t="n">
+        <v>45034</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C68" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D68" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E68" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F68" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="G68" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="H68" s="0" t="n">
+        <f aca="false">IF(F68&gt;G68,1,2)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="1" t="n">
+        <v>45034</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C69" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D69" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E69" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F69" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="G69" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="H69" s="0" t="n">
+        <f aca="false">IF(F69&gt;G69,1,2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="1" t="n">
+        <v>45034</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C70" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D70" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E70" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F70" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="G70" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="H70" s="0" t="n">
+        <f aca="false">IF(F70&gt;G70,1,2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="1" t="n">
+        <v>45034</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C71" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D71" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E71" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F71" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="G71" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="H71" s="0" t="n">
+        <f aca="false">IF(F71&gt;G71,1,2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="1" t="n">
+        <v>45034</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C72" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D72" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E72" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F72" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="G72" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H72" s="0" t="n">
+        <f aca="false">IF(F72&gt;G72,1,2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="1" t="n">
+        <v>45034</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C73" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D73" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E73" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F73" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="G73" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="H73" s="0" t="n">
+        <f aca="false">IF(F73&gt;G73,1,2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="1" t="n">
+        <v>45034</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C74" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D74" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E74" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F74" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="G74" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="H74" s="0" t="n">
+        <f aca="false">IF(F74&gt;G74,1,2)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="1" t="n">
+        <v>45034</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C75" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D75" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E75" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F75" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="G75" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="H75" s="0" t="n">
+        <f aca="false">IF(F75&gt;G75,1,2)</f>
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/data/seuk_04.xlsx
+++ b/data/seuk_04.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="14">
   <si>
     <t xml:space="preserve">﻿Date</t>
   </si>
@@ -178,10 +178,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:O75"/>
+  <dimension ref="A1:O96"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A40" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K70" activeCellId="0" sqref="K70"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A64" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K90" activeCellId="0" sqref="K90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2221,6 +2221,495 @@
         <v>1</v>
       </c>
     </row>
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="1" t="n">
+        <v>45036</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C76" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D76" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E76" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F76" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="G76" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="H76" s="0" t="n">
+        <f aca="false">IF(F76&gt;G76,1,2)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="1" t="n">
+        <v>45036</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C77" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D77" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E77" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F77" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="G77" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="H77" s="0" t="n">
+        <f aca="false">IF(F77&gt;G77,1,2)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="1" t="n">
+        <v>45036</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C78" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D78" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E78" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F78" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="G78" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="H78" s="0" t="n">
+        <f aca="false">IF(F78&gt;G78,1,2)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="1" t="n">
+        <v>45036</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C79" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D79" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E79" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F79" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="G79" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="H79" s="0" t="n">
+        <f aca="false">IF(F79&gt;G79,1,2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="1" t="n">
+        <v>45036</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C80" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D80" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E80" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F80" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="G80" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="H80" s="0" t="n">
+        <f aca="false">IF(F80&gt;G80,1,2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="1" t="n">
+        <v>45036</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C81" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D81" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E81" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F81" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="G81" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="H81" s="0" t="n">
+        <f aca="false">IF(F81&gt;G81,1,2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="1" t="n">
+        <v>45036</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C82" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D82" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E82" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F82" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="G82" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H82" s="0" t="n">
+        <f aca="false">IF(F82&gt;G82,1,2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="1" t="n">
+        <v>45036</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C83" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D83" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E83" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F83" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="G83" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="H83" s="0" t="n">
+        <f aca="false">IF(F83&gt;G83,1,2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="1" t="n">
+        <v>45036</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C84" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D84" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E84" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F84" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="G84" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="H84" s="0" t="n">
+        <f aca="false">IF(F84&gt;G84,1,2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="1" t="n">
+        <v>45036</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C85" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D85" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E85" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F85" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="G85" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="H85" s="0" t="n">
+        <f aca="false">IF(F85&gt;G85,1,2)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="1" t="n">
+        <v>45036</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C86" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D86" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E86" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F86" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="G86" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="H86" s="0" t="n">
+        <f aca="false">IF(F86&gt;G86,1,2)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="1" t="n">
+        <v>45036</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C87" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D87" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E87" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F87" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="G87" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="H87" s="0" t="n">
+        <f aca="false">IF(F87&gt;G87,1,2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="1" t="n">
+        <v>45036</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C88" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D88" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E88" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F88" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="G88" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="H88" s="0" t="n">
+        <f aca="false">IF(F88&gt;G88,1,2)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="1" t="n">
+        <v>45036</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C89" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D89" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E89" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F89" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="G89" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="H89" s="0" t="n">
+        <f aca="false">IF(F89&gt;G89,1,2)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="1" t="n">
+        <v>45036</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C90" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D90" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E90" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F90" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="G90" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="H90" s="0" t="n">
+        <f aca="false">IF(F90&gt;G90,1,2)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="1" t="n">
+        <v>45036</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C91" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D91" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E91" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F91" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="G91" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="H91" s="0" t="n">
+        <f aca="false">IF(F91&gt;G91,1,2)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="1" t="n">
+        <v>45036</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C92" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D92" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E92" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F92" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="G92" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="H92" s="0" t="n">
+        <f aca="false">IF(F92&gt;G92,1,2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="1" t="n">
+        <v>45036</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C93" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D93" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E93" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F93" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="G93" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="H93" s="0" t="n">
+        <f aca="false">IF(F93&gt;G93,1,2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/data/seuk_04.xlsx
+++ b/data/seuk_04.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="14">
   <si>
     <t xml:space="preserve">﻿Date</t>
   </si>
@@ -178,10 +178,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:O96"/>
+  <dimension ref="A1:O166"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A64" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K90" activeCellId="0" sqref="K90"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A124" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I153" activeCellId="0" sqref="I153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2707,9 +2707,1509 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="1" t="n">
+        <v>45041</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C94" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D94" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E94" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F94" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="G94" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="H94" s="0" t="n">
+        <f aca="false">IF(F94&gt;G94,1,2)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="1" t="n">
+        <v>45041</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C95" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D95" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E95" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F95" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="G95" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="H95" s="0" t="n">
+        <f aca="false">IF(F95&gt;G95,1,2)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="1" t="n">
+        <v>45041</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C96" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D96" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E96" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F96" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="G96" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="H96" s="0" t="n">
+        <f aca="false">IF(F96&gt;G96,1,2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="1" t="n">
+        <v>45041</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C97" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D97" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E97" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F97" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="G97" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="H97" s="0" t="n">
+        <f aca="false">IF(F97&gt;G97,1,2)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="1" t="n">
+        <v>45041</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C98" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D98" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E98" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F98" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="G98" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H98" s="0" t="n">
+        <f aca="false">IF(F98&gt;G98,1,2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="1" t="n">
+        <v>45041</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C99" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D99" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E99" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F99" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="G99" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="H99" s="0" t="n">
+        <f aca="false">IF(F99&gt;G99,1,2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="1" t="n">
+        <v>45041</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C100" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D100" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E100" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F100" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="G100" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="H100" s="0" t="n">
+        <f aca="false">IF(F100&gt;G100,1,2)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="1" t="n">
+        <v>45041</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C101" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D101" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E101" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F101" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="G101" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="H101" s="0" t="n">
+        <f aca="false">IF(F101&gt;G101,1,2)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="1" t="n">
+        <v>45041</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C102" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D102" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E102" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F102" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="G102" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="H102" s="0" t="n">
+        <f aca="false">IF(F102&gt;G102,1,2)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="1" t="n">
+        <v>45041</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C103" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D103" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E103" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F103" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="G103" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="H103" s="0" t="n">
+        <f aca="false">IF(F103&gt;G103,1,2)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="1" t="n">
+        <v>45041</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C104" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D104" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E104" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F104" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="G104" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="H104" s="0" t="n">
+        <f aca="false">IF(F104&gt;G104,1,2)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="1" t="n">
+        <v>45041</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C105" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D105" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E105" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F105" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="G105" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="H105" s="0" t="n">
+        <f aca="false">IF(F105&gt;G105,1,2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="1" t="n">
+        <v>45043</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C106" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D106" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E106" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F106" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="G106" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="H106" s="0" t="n">
+        <f aca="false">IF(F106&gt;G106,1,2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="1" t="n">
+        <v>45043</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C107" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D107" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E107" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F107" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="G107" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="H107" s="0" t="n">
+        <f aca="false">IF(F107&gt;G107,1,2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="1" t="n">
+        <v>45043</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C108" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D108" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E108" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F108" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="G108" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="H108" s="0" t="n">
+        <f aca="false">IF(F108&gt;G108,1,2)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="1" t="n">
+        <v>45043</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C109" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D109" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E109" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F109" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="G109" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="H109" s="0" t="n">
+        <f aca="false">IF(F109&gt;G109,1,2)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="1" t="n">
+        <v>45043</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C110" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D110" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E110" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F110" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="G110" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="H110" s="0" t="n">
+        <f aca="false">IF(F110&gt;G110,1,2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="1" t="n">
+        <v>45043</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C111" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D111" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E111" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F111" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="G111" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H111" s="0" t="n">
+        <f aca="false">IF(F111&gt;G111,1,2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="1" t="n">
+        <v>45043</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C112" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D112" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E112" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F112" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="G112" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="H112" s="0" t="n">
+        <f aca="false">IF(F112&gt;G112,1,2)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="1" t="n">
+        <v>45043</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C113" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D113" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E113" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F113" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="G113" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="H113" s="0" t="n">
+        <f aca="false">IF(F113&gt;G113,1,2)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="1" t="n">
+        <v>45043</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C114" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D114" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E114" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F114" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="G114" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="H114" s="0" t="n">
+        <f aca="false">IF(F114&gt;G114,1,2)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="1" t="n">
+        <v>45043</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C115" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D115" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E115" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F115" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="G115" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="H115" s="0" t="n">
+        <f aca="false">IF(F115&gt;G115,1,2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="1" t="n">
+        <v>45043</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C116" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D116" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E116" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F116" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="G116" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="H116" s="0" t="n">
+        <f aca="false">IF(F116&gt;G116,1,2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="1" t="n">
+        <v>45043</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C117" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D117" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E117" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F117" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="G117" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="H117" s="0" t="n">
+        <f aca="false">IF(F117&gt;G117,1,2)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="1" t="n">
+        <v>45043</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C118" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D118" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E118" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F118" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="G118" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="H118" s="0" t="n">
+        <f aca="false">IF(F118&gt;G118,1,2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="1" t="n">
+        <v>45043</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C119" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D119" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E119" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F119" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="G119" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="H119" s="0" t="n">
+        <f aca="false">IF(F119&gt;G119,1,2)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="1" t="n">
+        <v>45043</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C120" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D120" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E120" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F120" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="G120" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="H120" s="0" t="n">
+        <f aca="false">IF(F120&gt;G120,1,2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="1" t="n">
+        <v>45055</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C121" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D121" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E121" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F121" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="G121" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="H121" s="0" t="n">
+        <f aca="false">IF(F121&gt;G121,1,2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="1" t="n">
+        <v>45055</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C122" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D122" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E122" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F122" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="G122" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="H122" s="0" t="n">
+        <f aca="false">IF(F122&gt;G122,1,2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="1" t="n">
+        <v>45055</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C123" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D123" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E123" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F123" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="G123" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H123" s="0" t="n">
+        <f aca="false">IF(F123&gt;G123,1,2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="1" t="n">
+        <v>45055</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C124" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D124" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E124" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F124" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="G124" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="H124" s="0" t="n">
+        <f aca="false">IF(F124&gt;G124,1,2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="1" t="n">
+        <v>45055</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C125" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D125" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E125" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F125" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="G125" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H125" s="0" t="n">
+        <f aca="false">IF(F125&gt;G125,1,2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="1" t="n">
+        <v>45055</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C126" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D126" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E126" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F126" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="G126" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="H126" s="0" t="n">
+        <f aca="false">IF(F126&gt;G126,1,2)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="1" t="n">
+        <v>45055</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C127" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D127" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E127" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F127" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="G127" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="H127" s="0" t="n">
+        <f aca="false">IF(F127&gt;G127,1,2)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="1" t="n">
+        <v>45055</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C128" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D128" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E128" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F128" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="G128" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="H128" s="0" t="n">
+        <f aca="false">IF(F128&gt;G128,1,2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="1" t="n">
+        <v>45055</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C129" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D129" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E129" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F129" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="G129" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="H129" s="0" t="n">
+        <f aca="false">IF(F129&gt;G129,1,2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="1" t="n">
+        <v>45055</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C130" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D130" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E130" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F130" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="G130" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H130" s="0" t="n">
+        <f aca="false">IF(F130&gt;G130,1,2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="1" t="n">
+        <v>45055</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C131" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D131" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E131" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F131" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="G131" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="H131" s="0" t="n">
+        <f aca="false">IF(F131&gt;G131,1,2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="1" t="n">
+        <v>45055</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C132" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D132" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E132" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F132" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="G132" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="H132" s="0" t="n">
+        <f aca="false">IF(F132&gt;G132,1,2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="1" t="n">
+        <v>45055</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C133" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D133" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E133" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F133" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="G133" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="H133" s="0" t="n">
+        <f aca="false">IF(F133&gt;G133,1,2)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="1" t="n">
+        <v>45055</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C134" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D134" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E134" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F134" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="G134" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="H134" s="0" t="n">
+        <f aca="false">IF(F134&gt;G134,1,2)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="1" t="n">
+        <v>45057</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C135" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D135" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E135" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F135" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="G135" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="H135" s="0" t="n">
+        <f aca="false">IF(F135&gt;G135,1,2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="1" t="n">
+        <v>45057</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C136" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D136" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E136" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F136" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="G136" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="H136" s="0" t="n">
+        <f aca="false">IF(F136&gt;G136,1,2)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="1" t="n">
+        <v>45057</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C137" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D137" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E137" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F137" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="G137" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="H137" s="0" t="n">
+        <f aca="false">IF(F137&gt;G137,1,2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="1" t="n">
+        <v>45057</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C138" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D138" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E138" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F138" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G138" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="H138" s="0" t="n">
+        <f aca="false">IF(F138&gt;G138,1,2)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="1" t="n">
+        <v>45057</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C139" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D139" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E139" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F139" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="G139" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="H139" s="0" t="n">
+        <f aca="false">IF(F139&gt;G139,1,2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="1" t="n">
+        <v>45062</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C140" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D140" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E140" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F140" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="G140" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="H140" s="0" t="n">
+        <f aca="false">IF(F140&gt;G140,1,2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="1" t="n">
+        <v>45062</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C141" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D141" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E141" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F141" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="G141" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="H141" s="0" t="n">
+        <f aca="false">IF(F141&gt;G141,1,2)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A142" s="1" t="n">
+        <v>45062</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C142" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D142" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E142" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F142" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="G142" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="H142" s="0" t="n">
+        <f aca="false">IF(F142&gt;G142,1,2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A143" s="1" t="n">
+        <v>45062</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C143" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D143" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E143" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F143" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="G143" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="H143" s="0" t="n">
+        <f aca="false">IF(F143&gt;G143,1,2)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="1" t="n">
+        <v>45062</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C144" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D144" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E144" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F144" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="G144" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="H144" s="0" t="n">
+        <f aca="false">IF(F144&gt;G144,1,2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A145" s="1" t="n">
+        <v>45062</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C145" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D145" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E145" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F145" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="G145" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="H145" s="0" t="n">
+        <f aca="false">IF(F145&gt;G145,1,2)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A146" s="1" t="n">
+        <v>45062</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C146" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D146" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E146" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F146" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="G146" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="H146" s="0" t="n">
+        <f aca="false">IF(F146&gt;G146,1,2)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A147" s="1" t="n">
+        <v>45062</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C147" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D147" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E147" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F147" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="G147" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="H147" s="0" t="n">
+        <f aca="false">IF(F147&gt;G147,1,2)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A148" s="1" t="n">
+        <v>45062</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C148" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D148" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E148" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F148" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="G148" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="H148" s="0" t="n">
+        <f aca="false">IF(F148&gt;G148,1,2)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/data/seuk_04.xlsx
+++ b/data/seuk_04.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="684" uniqueCount="14">
   <si>
     <t xml:space="preserve">﻿Date</t>
   </si>
@@ -178,10 +178,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:O166"/>
+  <dimension ref="A1:O170"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A124" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I153" activeCellId="0" sqref="I153"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A130" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M159" activeCellId="0" sqref="M159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4192,24 +4192,600 @@
         <v>2</v>
       </c>
     </row>
-    <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A149" s="1" t="n">
+        <v>45064</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C149" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D149" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E149" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F149" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="G149" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="H149" s="0" t="n">
+        <f aca="false">IF(F149&gt;G149,1,2)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A150" s="1" t="n">
+        <v>45064</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C150" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D150" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E150" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F150" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="G150" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H150" s="0" t="n">
+        <f aca="false">IF(F150&gt;G150,1,2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A151" s="1" t="n">
+        <v>45064</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C151" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D151" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E151" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F151" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="G151" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="H151" s="0" t="n">
+        <f aca="false">IF(F151&gt;G151,1,2)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A152" s="1" t="n">
+        <v>45064</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C152" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D152" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E152" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F152" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="G152" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="H152" s="0" t="n">
+        <f aca="false">IF(F152&gt;G152,1,2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A153" s="1" t="n">
+        <v>45064</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C153" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D153" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E153" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F153" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="G153" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="H153" s="0" t="n">
+        <f aca="false">IF(F153&gt;G153,1,2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A154" s="1" t="n">
+        <v>45064</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C154" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D154" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E154" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F154" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="G154" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="H154" s="0" t="n">
+        <f aca="false">IF(F154&gt;G154,1,2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A155" s="1" t="n">
+        <v>45064</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C155" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D155" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E155" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F155" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="G155" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="H155" s="0" t="n">
+        <f aca="false">IF(F155&gt;G155,1,2)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A156" s="1" t="n">
+        <v>45064</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C156" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D156" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E156" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F156" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="G156" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="H156" s="0" t="n">
+        <f aca="false">IF(F156&gt;G156,1,2)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A157" s="1" t="n">
+        <v>45064</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C157" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D157" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E157" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F157" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="G157" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="H157" s="0" t="n">
+        <f aca="false">IF(F157&gt;G157,1,2)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A158" s="1" t="n">
+        <v>45064</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C158" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D158" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E158" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F158" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="G158" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="H158" s="0" t="n">
+        <f aca="false">IF(F158&gt;G158,1,2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A159" s="1" t="n">
+        <v>45064</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C159" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D159" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E159" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F159" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="G159" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="H159" s="0" t="n">
+        <f aca="false">IF(F159&gt;G159,1,2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A160" s="1" t="n">
+        <v>45064</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C160" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D160" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E160" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F160" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="G160" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="H160" s="0" t="n">
+        <f aca="false">IF(F160&gt;G160,1,2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A161" s="1" t="n">
+        <v>45064</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C161" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D161" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E161" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F161" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="G161" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="H161" s="0" t="n">
+        <f aca="false">IF(F161&gt;G161,1,2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A162" s="1" t="n">
+        <v>45069</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C162" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D162" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E162" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F162" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="G162" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H162" s="0" t="n">
+        <f aca="false">IF(F162&gt;G162,1,2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A163" s="1" t="n">
+        <v>45069</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C163" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D163" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E163" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F163" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="G163" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="H163" s="0" t="n">
+        <f aca="false">IF(F163&gt;G163,1,2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A164" s="1" t="n">
+        <v>45069</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C164" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D164" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E164" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F164" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="G164" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="H164" s="0" t="n">
+        <f aca="false">IF(F164&gt;G164,1,2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A165" s="1" t="n">
+        <v>45069</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C165" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D165" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E165" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F165" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="G165" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H165" s="0" t="n">
+        <f aca="false">IF(F165&gt;G165,1,2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A166" s="1" t="n">
+        <v>45069</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C166" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D166" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E166" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F166" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="G166" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="H166" s="0" t="n">
+        <f aca="false">IF(F166&gt;G166,1,2)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A167" s="1" t="n">
+        <v>45069</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C167" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D167" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E167" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F167" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="G167" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="H167" s="0" t="n">
+        <f aca="false">IF(F167&gt;G167,1,2)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A168" s="1" t="n">
+        <v>45069</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C168" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D168" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E168" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F168" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="G168" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="H168" s="0" t="n">
+        <f aca="false">IF(F168&gt;G168,1,2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A169" s="1" t="n">
+        <v>45069</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C169" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D169" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E169" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F169" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="G169" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="H169" s="0" t="n">
+        <f aca="false">IF(F169&gt;G169,1,2)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A170" s="1" t="n">
+        <v>45069</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C170" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D170" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E170" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F170" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="G170" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="H170" s="0" t="n">
+        <f aca="false">IF(F170&gt;G170,1,2)</f>
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/data/seuk_04.xlsx
+++ b/data/seuk_04.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="684" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="14">
   <si>
     <t xml:space="preserve">﻿Date</t>
   </si>
@@ -178,10 +178,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:O170"/>
+  <dimension ref="A1:O179"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A130" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M159" activeCellId="0" sqref="M159"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A142" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L172" activeCellId="0" sqref="L172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4786,6 +4786,249 @@
         <v>2</v>
       </c>
     </row>
+    <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A171" s="1" t="n">
+        <v>45071</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C171" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D171" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E171" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F171" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="G171" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="H171" s="0" t="n">
+        <f aca="false">IF(F171&gt;G171,1,2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A172" s="1" t="n">
+        <v>45071</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C172" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D172" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E172" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F172" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="G172" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="H172" s="0" t="n">
+        <f aca="false">IF(F172&gt;G172,1,2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A173" s="1" t="n">
+        <v>45071</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C173" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D173" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E173" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F173" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="G173" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="H173" s="0" t="n">
+        <f aca="false">IF(F173&gt;G173,1,2)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A174" s="1" t="n">
+        <v>45071</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C174" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D174" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E174" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F174" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="G174" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H174" s="0" t="n">
+        <f aca="false">IF(F174&gt;G174,1,2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A175" s="1" t="n">
+        <v>45071</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C175" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D175" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E175" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F175" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="G175" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="H175" s="0" t="n">
+        <f aca="false">IF(F175&gt;G175,1,2)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A176" s="1" t="n">
+        <v>45071</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C176" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D176" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E176" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F176" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="G176" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="H176" s="0" t="n">
+        <f aca="false">IF(F176&gt;G176,1,2)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A177" s="1" t="n">
+        <v>45071</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C177" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D177" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E177" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F177" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="G177" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H177" s="0" t="n">
+        <f aca="false">IF(F177&gt;G177,1,2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A178" s="1" t="n">
+        <v>45071</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C178" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D178" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E178" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F178" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="G178" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="H178" s="0" t="n">
+        <f aca="false">IF(F178&gt;G178,1,2)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A179" s="1" t="n">
+        <v>45071</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C179" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D179" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E179" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F179" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="G179" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="H179" s="0" t="n">
+        <f aca="false">IF(F179&gt;G179,1,2)</f>
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/data/seuk_04.xlsx
+++ b/data/seuk_04.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="14">
   <si>
     <t xml:space="preserve">﻿Date</t>
   </si>
@@ -178,10 +178,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:O179"/>
+  <dimension ref="A1:O205"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A142" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L172" activeCellId="0" sqref="L172"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A170" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G206" activeCellId="0" sqref="G206"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5029,6 +5029,708 @@
         <v>1</v>
       </c>
     </row>
+    <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A180" s="1" t="n">
+        <v>45076</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C180" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D180" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E180" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F180" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="G180" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H180" s="0" t="n">
+        <f aca="false">IF(F180&gt;G180,1,2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A181" s="1" t="n">
+        <v>45076</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C181" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D181" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E181" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F181" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="G181" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="H181" s="0" t="n">
+        <f aca="false">IF(F181&gt;G181,1,2)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A182" s="1" t="n">
+        <v>45076</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C182" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D182" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E182" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F182" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="G182" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="H182" s="0" t="n">
+        <f aca="false">IF(F182&gt;G182,1,2)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A183" s="1" t="n">
+        <v>45076</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C183" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D183" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E183" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F183" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="G183" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="H183" s="0" t="n">
+        <f aca="false">IF(F183&gt;G183,1,2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A184" s="1" t="n">
+        <v>45076</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C184" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D184" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E184" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F184" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="G184" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="H184" s="0" t="n">
+        <f aca="false">IF(F184&gt;G184,1,2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A185" s="1" t="n">
+        <v>45076</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C185" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D185" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E185" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F185" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="G185" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="H185" s="0" t="n">
+        <f aca="false">IF(F185&gt;G185,1,2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A186" s="1" t="n">
+        <v>45076</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C186" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D186" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E186" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F186" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="G186" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="H186" s="0" t="n">
+        <f aca="false">IF(F186&gt;G186,1,2)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A187" s="1" t="n">
+        <v>45078</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C187" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D187" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E187" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F187" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="G187" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="H187" s="0" t="n">
+        <f aca="false">IF(F187&gt;G187,1,2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A188" s="1" t="n">
+        <v>45078</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C188" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D188" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E188" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F188" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="G188" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="H188" s="0" t="n">
+        <f aca="false">IF(F188&gt;G188,1,2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A189" s="1" t="n">
+        <v>45078</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C189" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D189" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E189" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F189" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="G189" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="H189" s="0" t="n">
+        <f aca="false">IF(F189&gt;G189,1,2)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A190" s="1" t="n">
+        <v>45078</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C190" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D190" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E190" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F190" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="G190" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="H190" s="0" t="n">
+        <f aca="false">IF(F190&gt;G190,1,2)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A191" s="1" t="n">
+        <v>45078</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C191" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D191" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E191" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F191" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="G191" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H191" s="0" t="n">
+        <f aca="false">IF(F191&gt;G191,1,2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A192" s="1" t="n">
+        <v>45078</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C192" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D192" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E192" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F192" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="G192" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="H192" s="0" t="n">
+        <f aca="false">IF(F192&gt;G192,1,2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A193" s="1" t="n">
+        <v>45078</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C193" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D193" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E193" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F193" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="G193" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="H193" s="0" t="n">
+        <f aca="false">IF(F193&gt;G193,1,2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A194" s="1" t="n">
+        <v>45078</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C194" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D194" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E194" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F194" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="G194" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="H194" s="0" t="n">
+        <f aca="false">IF(F194&gt;G194,1,2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A195" s="1" t="n">
+        <v>45083</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C195" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D195" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E195" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F195" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="G195" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H195" s="0" t="n">
+        <f aca="false">IF(F195&gt;G195,1,2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A196" s="1" t="n">
+        <v>45083</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C196" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D196" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E196" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F196" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="G196" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="H196" s="0" t="n">
+        <f aca="false">IF(F196&gt;G196,1,2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A197" s="1" t="n">
+        <v>45083</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C197" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D197" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E197" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F197" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="G197" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="H197" s="0" t="n">
+        <f aca="false">IF(F197&gt;G197,1,2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A198" s="1" t="n">
+        <v>45083</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C198" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D198" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E198" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F198" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="G198" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="H198" s="0" t="n">
+        <f aca="false">IF(F198&gt;G198,1,2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A199" s="1" t="n">
+        <v>45083</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C199" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D199" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E199" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F199" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="G199" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H199" s="0" t="n">
+        <f aca="false">IF(F199&gt;G199,1,2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A200" s="1" t="n">
+        <v>45083</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C200" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D200" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E200" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F200" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="G200" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="H200" s="0" t="n">
+        <f aca="false">IF(F200&gt;G200,1,2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A201" s="1" t="n">
+        <v>45083</v>
+      </c>
+      <c r="B201" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C201" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D201" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E201" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F201" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="G201" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="H201" s="0" t="n">
+        <f aca="false">IF(F201&gt;G201,1,2)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A202" s="1" t="n">
+        <v>45083</v>
+      </c>
+      <c r="B202" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C202" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D202" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E202" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F202" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="G202" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="H202" s="0" t="n">
+        <f aca="false">IF(F202&gt;G202,1,2)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A203" s="1" t="n">
+        <v>45083</v>
+      </c>
+      <c r="B203" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C203" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D203" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E203" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F203" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="G203" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="H203" s="0" t="n">
+        <f aca="false">IF(F203&gt;G203,1,2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A204" s="1" t="n">
+        <v>45083</v>
+      </c>
+      <c r="B204" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C204" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D204" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E204" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F204" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="G204" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="H204" s="0" t="n">
+        <f aca="false">IF(F204&gt;G204,1,2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A205" s="1" t="n">
+        <v>45083</v>
+      </c>
+      <c r="B205" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C205" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D205" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E205" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F205" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="G205" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="H205" s="0" t="n">
+        <f aca="false">IF(F205&gt;G205,1,2)</f>
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/data/seuk_04.xlsx
+++ b/data/seuk_04.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="908" uniqueCount="14">
   <si>
     <t xml:space="preserve">﻿Date</t>
   </si>
@@ -178,10 +178,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:O205"/>
+  <dimension ref="A1:O226"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A170" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G206" activeCellId="0" sqref="G206"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A197" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L221" activeCellId="0" sqref="L221"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5731,6 +5731,573 @@
         <v>2</v>
       </c>
     </row>
+    <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A206" s="1" t="n">
+        <v>45090</v>
+      </c>
+      <c r="B206" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C206" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D206" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E206" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F206" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="G206" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="H206" s="0" t="n">
+        <f aca="false">IF(F206&gt;G206,1,2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A207" s="1" t="n">
+        <v>45090</v>
+      </c>
+      <c r="B207" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C207" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D207" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E207" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F207" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="G207" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="H207" s="0" t="n">
+        <f aca="false">IF(F207&gt;G207,1,2)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A208" s="1" t="n">
+        <v>45090</v>
+      </c>
+      <c r="B208" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C208" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D208" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E208" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F208" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="G208" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="H208" s="0" t="n">
+        <f aca="false">IF(F208&gt;G208,1,2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A209" s="1" t="n">
+        <v>45090</v>
+      </c>
+      <c r="B209" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C209" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D209" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E209" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F209" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="G209" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="H209" s="0" t="n">
+        <f aca="false">IF(F209&gt;G209,1,2)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A210" s="1" t="n">
+        <v>45090</v>
+      </c>
+      <c r="B210" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C210" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D210" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E210" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F210" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="G210" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="H210" s="0" t="n">
+        <f aca="false">IF(F210&gt;G210,1,2)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A211" s="1" t="n">
+        <v>45090</v>
+      </c>
+      <c r="B211" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C211" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D211" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E211" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F211" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="G211" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="H211" s="0" t="n">
+        <f aca="false">IF(F211&gt;G211,1,2)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A212" s="1" t="n">
+        <v>45090</v>
+      </c>
+      <c r="B212" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C212" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D212" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E212" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F212" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="G212" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="H212" s="0" t="n">
+        <f aca="false">IF(F212&gt;G212,1,2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A213" s="1" t="n">
+        <v>45090</v>
+      </c>
+      <c r="B213" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C213" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D213" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E213" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F213" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="G213" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="H213" s="0" t="n">
+        <f aca="false">IF(F213&gt;G213,1,2)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A214" s="1" t="n">
+        <v>45090</v>
+      </c>
+      <c r="B214" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C214" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D214" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E214" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F214" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="G214" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="H214" s="0" t="n">
+        <f aca="false">IF(F214&gt;G214,1,2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A215" s="1" t="n">
+        <v>45092</v>
+      </c>
+      <c r="B215" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C215" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D215" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E215" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F215" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="G215" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="H215" s="0" t="n">
+        <f aca="false">IF(F215&gt;G215,1,2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A216" s="1" t="n">
+        <v>45092</v>
+      </c>
+      <c r="B216" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C216" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D216" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E216" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F216" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="G216" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="H216" s="0" t="n">
+        <f aca="false">IF(F216&gt;G216,1,2)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A217" s="1" t="n">
+        <v>45092</v>
+      </c>
+      <c r="B217" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C217" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D217" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E217" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F217" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="G217" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="H217" s="0" t="n">
+        <f aca="false">IF(F217&gt;G217,1,2)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A218" s="1" t="n">
+        <v>45092</v>
+      </c>
+      <c r="B218" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C218" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D218" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E218" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F218" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="G218" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="H218" s="0" t="n">
+        <f aca="false">IF(F218&gt;G218,1,2)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A219" s="1" t="n">
+        <v>45092</v>
+      </c>
+      <c r="B219" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C219" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D219" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E219" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F219" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="G219" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="H219" s="0" t="n">
+        <f aca="false">IF(F219&gt;G219,1,2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A220" s="1" t="n">
+        <v>45092</v>
+      </c>
+      <c r="B220" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C220" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D220" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E220" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F220" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="G220" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="H220" s="0" t="n">
+        <f aca="false">IF(F220&gt;G220,1,2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A221" s="1" t="n">
+        <v>45092</v>
+      </c>
+      <c r="B221" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C221" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D221" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E221" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F221" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="G221" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="H221" s="0" t="n">
+        <f aca="false">IF(F221&gt;G221,1,2)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A222" s="1" t="n">
+        <v>45092</v>
+      </c>
+      <c r="B222" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C222" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D222" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E222" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F222" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="G222" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H222" s="0" t="n">
+        <f aca="false">IF(F222&gt;G222,1,2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A223" s="1" t="n">
+        <v>45092</v>
+      </c>
+      <c r="B223" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C223" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D223" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E223" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F223" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="G223" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="H223" s="0" t="n">
+        <f aca="false">IF(F223&gt;G223,1,2)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A224" s="1" t="n">
+        <v>45092</v>
+      </c>
+      <c r="B224" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C224" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D224" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E224" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F224" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="G224" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="H224" s="0" t="n">
+        <f aca="false">IF(F224&gt;G224,1,2)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A225" s="1" t="n">
+        <v>45092</v>
+      </c>
+      <c r="B225" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C225" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D225" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E225" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F225" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="G225" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="H225" s="0" t="n">
+        <f aca="false">IF(F225&gt;G225,1,2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A226" s="1" t="n">
+        <v>45092</v>
+      </c>
+      <c r="B226" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C226" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D226" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E226" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F226" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="G226" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="H226" s="0" t="n">
+        <f aca="false">IF(F226&gt;G226,1,2)</f>
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/data/seuk_04.xlsx
+++ b/data/seuk_04.xlsx
@@ -180,8 +180,8 @@
   </sheetPr>
   <dimension ref="A1:O226"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A197" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L221" activeCellId="0" sqref="L221"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A185" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E203" activeCellId="0" sqref="E203"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2820,10 +2820,10 @@
         <v>45041</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C98" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D98" s="0" t="s">
         <v>11</v>
@@ -5658,7 +5658,7 @@
         <v>9</v>
       </c>
       <c r="C203" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D203" s="0" t="s">
         <v>8</v>

--- a/data/seuk_04.xlsx
+++ b/data/seuk_04.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\foosball\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{287258EA-E429-402E-B964-BB8C74FC2E3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB85622E-6C8B-4BC1-909C-9BECD923186B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,17 +17,6 @@
   </sheets>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -36,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="976" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1032" uniqueCount="14">
   <si>
     <t>﻿Date</t>
   </si>
@@ -442,10 +431,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O243"/>
+  <dimension ref="A1:O257"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A199" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S15" sqref="S15"/>
+    <sheetView tabSelected="1" topLeftCell="A208" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J254" sqref="J254"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7021,6 +7010,384 @@
         <v>1</v>
       </c>
     </row>
+    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A244" s="1">
+        <v>45099</v>
+      </c>
+      <c r="B244" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C244" t="s">
+        <v>13</v>
+      </c>
+      <c r="D244" t="s">
+        <v>8</v>
+      </c>
+      <c r="E244" t="s">
+        <v>9</v>
+      </c>
+      <c r="F244">
+        <v>8</v>
+      </c>
+      <c r="G244">
+        <v>7</v>
+      </c>
+      <c r="H244">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A245" s="1">
+        <v>45099</v>
+      </c>
+      <c r="B245" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C245" t="s">
+        <v>11</v>
+      </c>
+      <c r="D245" t="s">
+        <v>9</v>
+      </c>
+      <c r="E245" t="s">
+        <v>12</v>
+      </c>
+      <c r="F245">
+        <v>8</v>
+      </c>
+      <c r="G245">
+        <v>4</v>
+      </c>
+      <c r="H245">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A246" s="1">
+        <v>45099</v>
+      </c>
+      <c r="B246" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C246" t="s">
+        <v>11</v>
+      </c>
+      <c r="D246" t="s">
+        <v>13</v>
+      </c>
+      <c r="E246" t="s">
+        <v>8</v>
+      </c>
+      <c r="F246">
+        <v>6</v>
+      </c>
+      <c r="G246">
+        <v>8</v>
+      </c>
+      <c r="H246">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A247" s="1">
+        <v>45099</v>
+      </c>
+      <c r="B247" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C247" t="s">
+        <v>12</v>
+      </c>
+      <c r="D247" t="s">
+        <v>9</v>
+      </c>
+      <c r="E247" t="s">
+        <v>11</v>
+      </c>
+      <c r="F247">
+        <v>8</v>
+      </c>
+      <c r="G247">
+        <v>2</v>
+      </c>
+      <c r="H247">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A248" s="1">
+        <v>45099</v>
+      </c>
+      <c r="B248" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C248" t="s">
+        <v>8</v>
+      </c>
+      <c r="D248" t="s">
+        <v>13</v>
+      </c>
+      <c r="E248" t="s">
+        <v>12</v>
+      </c>
+      <c r="F248">
+        <v>8</v>
+      </c>
+      <c r="G248">
+        <v>0</v>
+      </c>
+      <c r="H248">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A249" s="1">
+        <v>45099</v>
+      </c>
+      <c r="B249" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C249" t="s">
+        <v>8</v>
+      </c>
+      <c r="D249" t="s">
+        <v>9</v>
+      </c>
+      <c r="E249" t="s">
+        <v>11</v>
+      </c>
+      <c r="F249">
+        <v>8</v>
+      </c>
+      <c r="G249">
+        <v>7</v>
+      </c>
+      <c r="H249">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A250" s="1">
+        <v>45099</v>
+      </c>
+      <c r="B250" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C250" t="s">
+        <v>12</v>
+      </c>
+      <c r="D250" t="s">
+        <v>9</v>
+      </c>
+      <c r="E250" t="s">
+        <v>13</v>
+      </c>
+      <c r="F250">
+        <v>8</v>
+      </c>
+      <c r="G250">
+        <v>5</v>
+      </c>
+      <c r="H250">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A251" s="1">
+        <v>45099</v>
+      </c>
+      <c r="B251" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C251" t="s">
+        <v>8</v>
+      </c>
+      <c r="D251" t="s">
+        <v>11</v>
+      </c>
+      <c r="E251" t="s">
+        <v>12</v>
+      </c>
+      <c r="F251">
+        <v>8</v>
+      </c>
+      <c r="G251">
+        <v>2</v>
+      </c>
+      <c r="H251">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A252" s="1">
+        <v>45099</v>
+      </c>
+      <c r="B252" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C252" t="s">
+        <v>9</v>
+      </c>
+      <c r="D252" t="s">
+        <v>8</v>
+      </c>
+      <c r="E252" t="s">
+        <v>11</v>
+      </c>
+      <c r="F252">
+        <v>0</v>
+      </c>
+      <c r="G252">
+        <v>8</v>
+      </c>
+      <c r="H252">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A253" s="1">
+        <v>45099</v>
+      </c>
+      <c r="B253" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C253" t="s">
+        <v>11</v>
+      </c>
+      <c r="D253" t="s">
+        <v>9</v>
+      </c>
+      <c r="E253" t="s">
+        <v>8</v>
+      </c>
+      <c r="F253">
+        <v>6</v>
+      </c>
+      <c r="G253">
+        <v>8</v>
+      </c>
+      <c r="H253">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A254" s="1">
+        <v>45099</v>
+      </c>
+      <c r="B254" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C254" t="s">
+        <v>9</v>
+      </c>
+      <c r="D254" t="s">
+        <v>12</v>
+      </c>
+      <c r="E254" t="s">
+        <v>8</v>
+      </c>
+      <c r="F254">
+        <v>2</v>
+      </c>
+      <c r="G254">
+        <v>8</v>
+      </c>
+      <c r="H254">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A255" s="1">
+        <v>45099</v>
+      </c>
+      <c r="B255" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C255" t="s">
+        <v>12</v>
+      </c>
+      <c r="D255" t="s">
+        <v>8</v>
+      </c>
+      <c r="E255" t="s">
+        <v>11</v>
+      </c>
+      <c r="F255">
+        <v>8</v>
+      </c>
+      <c r="G255">
+        <v>3</v>
+      </c>
+      <c r="H255">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A256" s="1">
+        <v>45099</v>
+      </c>
+      <c r="B256" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C256" t="s">
+        <v>9</v>
+      </c>
+      <c r="D256" t="s">
+        <v>11</v>
+      </c>
+      <c r="E256" t="s">
+        <v>12</v>
+      </c>
+      <c r="F256">
+        <v>8</v>
+      </c>
+      <c r="G256">
+        <v>3</v>
+      </c>
+      <c r="H256">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A257" s="1">
+        <v>45099</v>
+      </c>
+      <c r="B257" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C257" t="s">
+        <v>8</v>
+      </c>
+      <c r="D257" t="s">
+        <v>9</v>
+      </c>
+      <c r="E257" t="s">
+        <v>11</v>
+      </c>
+      <c r="F257">
+        <v>8</v>
+      </c>
+      <c r="G257">
+        <v>4</v>
+      </c>
+      <c r="H257">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/data/seuk_04.xlsx
+++ b/data/seuk_04.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\foosball\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB85622E-6C8B-4BC1-909C-9BECD923186B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{370A62DF-E108-4B5A-92C8-3F78FC167C40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1032" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1092" uniqueCount="14">
   <si>
     <t>﻿Date</t>
   </si>
@@ -431,10 +431,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O257"/>
+  <dimension ref="A1:O272"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A208" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J254" sqref="J254"/>
+    <sheetView tabSelected="1" topLeftCell="A229" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K260" sqref="K260"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5683,7 +5683,7 @@
         <v>7</v>
       </c>
       <c r="H194">
-        <f t="shared" ref="H194:H257" si="3">IF(F194&gt;G194,1,2)</f>
+        <f t="shared" ref="H194:H258" si="3">IF(F194&gt;G194,1,2)</f>
         <v>1</v>
       </c>
     </row>
@@ -7386,6 +7386,411 @@
       <c r="H257">
         <f t="shared" si="3"/>
         <v>1</v>
+      </c>
+    </row>
+    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A258" s="1">
+        <v>45104</v>
+      </c>
+      <c r="B258" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C258" t="s">
+        <v>9</v>
+      </c>
+      <c r="D258" t="s">
+        <v>12</v>
+      </c>
+      <c r="E258" t="s">
+        <v>8</v>
+      </c>
+      <c r="F258">
+        <v>8</v>
+      </c>
+      <c r="G258">
+        <v>4</v>
+      </c>
+      <c r="H258">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A259" s="1">
+        <v>45104</v>
+      </c>
+      <c r="B259" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C259" t="s">
+        <v>13</v>
+      </c>
+      <c r="D259" t="s">
+        <v>9</v>
+      </c>
+      <c r="E259" t="s">
+        <v>12</v>
+      </c>
+      <c r="F259">
+        <v>8</v>
+      </c>
+      <c r="G259">
+        <v>5</v>
+      </c>
+      <c r="H259">
+        <f t="shared" ref="H259:H272" si="4">IF(F259&gt;G259,1,2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A260" s="1">
+        <v>45104</v>
+      </c>
+      <c r="B260" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C260" t="s">
+        <v>13</v>
+      </c>
+      <c r="D260" t="s">
+        <v>8</v>
+      </c>
+      <c r="E260" t="s">
+        <v>9</v>
+      </c>
+      <c r="F260">
+        <v>8</v>
+      </c>
+      <c r="G260">
+        <v>5</v>
+      </c>
+      <c r="H260">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A261" s="1">
+        <v>45104</v>
+      </c>
+      <c r="B261" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C261" t="s">
+        <v>11</v>
+      </c>
+      <c r="D261" t="s">
+        <v>13</v>
+      </c>
+      <c r="E261" t="s">
+        <v>9</v>
+      </c>
+      <c r="F261">
+        <v>8</v>
+      </c>
+      <c r="G261">
+        <v>7</v>
+      </c>
+      <c r="H261">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A262" s="1">
+        <v>45104</v>
+      </c>
+      <c r="B262" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C262" t="s">
+        <v>8</v>
+      </c>
+      <c r="D262" t="s">
+        <v>11</v>
+      </c>
+      <c r="E262" t="s">
+        <v>12</v>
+      </c>
+      <c r="F262">
+        <v>8</v>
+      </c>
+      <c r="G262">
+        <v>5</v>
+      </c>
+      <c r="H262">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A263" s="1">
+        <v>45104</v>
+      </c>
+      <c r="B263" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C263" t="s">
+        <v>8</v>
+      </c>
+      <c r="D263" t="s">
+        <v>9</v>
+      </c>
+      <c r="E263" t="s">
+        <v>11</v>
+      </c>
+      <c r="F263">
+        <v>8</v>
+      </c>
+      <c r="G263">
+        <v>4</v>
+      </c>
+      <c r="H263">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A264" s="1">
+        <v>45104</v>
+      </c>
+      <c r="B264" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C264" t="s">
+        <v>11</v>
+      </c>
+      <c r="D264" t="s">
+        <v>12</v>
+      </c>
+      <c r="E264" t="s">
+        <v>9</v>
+      </c>
+      <c r="F264">
+        <v>8</v>
+      </c>
+      <c r="G264">
+        <v>5</v>
+      </c>
+      <c r="H264">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A265" s="1">
+        <v>45106</v>
+      </c>
+      <c r="B265" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C265" t="s">
+        <v>12</v>
+      </c>
+      <c r="D265" t="s">
+        <v>13</v>
+      </c>
+      <c r="E265" t="s">
+        <v>8</v>
+      </c>
+      <c r="F265">
+        <v>4</v>
+      </c>
+      <c r="G265">
+        <v>8</v>
+      </c>
+      <c r="H265">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A266" s="1">
+        <v>45106</v>
+      </c>
+      <c r="B266" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C266" t="s">
+        <v>11</v>
+      </c>
+      <c r="D266" t="s">
+        <v>12</v>
+      </c>
+      <c r="E266" t="s">
+        <v>13</v>
+      </c>
+      <c r="F266">
+        <v>8</v>
+      </c>
+      <c r="G266">
+        <v>7</v>
+      </c>
+      <c r="H266">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A267" s="1">
+        <v>45106</v>
+      </c>
+      <c r="B267" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C267" t="s">
+        <v>8</v>
+      </c>
+      <c r="D267" t="s">
+        <v>11</v>
+      </c>
+      <c r="E267" t="s">
+        <v>13</v>
+      </c>
+      <c r="F267">
+        <v>6</v>
+      </c>
+      <c r="G267">
+        <v>8</v>
+      </c>
+      <c r="H267">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A268" s="1">
+        <v>45106</v>
+      </c>
+      <c r="B268" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C268" t="s">
+        <v>13</v>
+      </c>
+      <c r="D268" t="s">
+        <v>9</v>
+      </c>
+      <c r="E268" t="s">
+        <v>11</v>
+      </c>
+      <c r="F268">
+        <v>8</v>
+      </c>
+      <c r="G268">
+        <v>6</v>
+      </c>
+      <c r="H268">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A269" s="1">
+        <v>45106</v>
+      </c>
+      <c r="B269" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C269" t="s">
+        <v>8</v>
+      </c>
+      <c r="D269" t="s">
+        <v>12</v>
+      </c>
+      <c r="E269" t="s">
+        <v>9</v>
+      </c>
+      <c r="F269">
+        <v>8</v>
+      </c>
+      <c r="G269">
+        <v>4</v>
+      </c>
+      <c r="H269">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A270" s="1">
+        <v>45106</v>
+      </c>
+      <c r="B270" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C270" t="s">
+        <v>12</v>
+      </c>
+      <c r="D270" t="s">
+        <v>8</v>
+      </c>
+      <c r="E270" t="s">
+        <v>9</v>
+      </c>
+      <c r="F270">
+        <v>5</v>
+      </c>
+      <c r="G270">
+        <v>8</v>
+      </c>
+      <c r="H270">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A271" s="1">
+        <v>45106</v>
+      </c>
+      <c r="B271" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C271" t="s">
+        <v>11</v>
+      </c>
+      <c r="D271" t="s">
+        <v>12</v>
+      </c>
+      <c r="E271" t="s">
+        <v>8</v>
+      </c>
+      <c r="F271">
+        <v>8</v>
+      </c>
+      <c r="G271">
+        <v>3</v>
+      </c>
+      <c r="H271">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A272" s="1">
+        <v>45106</v>
+      </c>
+      <c r="B272" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C272" t="s">
+        <v>13</v>
+      </c>
+      <c r="D272" t="s">
+        <v>11</v>
+      </c>
+      <c r="E272" t="s">
+        <v>8</v>
+      </c>
+      <c r="F272">
+        <v>2</v>
+      </c>
+      <c r="G272">
+        <v>8</v>
+      </c>
+      <c r="H272">
+        <f t="shared" si="4"/>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/data/seuk_04.xlsx
+++ b/data/seuk_04.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\foosball\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{370A62DF-E108-4B5A-92C8-3F78FC167C40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{343131F4-54BB-4741-A4F0-E8F74F51CE61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1092" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1292" uniqueCount="17">
   <si>
     <t>﻿Date</t>
   </si>
@@ -67,6 +67,15 @@
   </si>
   <si>
     <t>Kuba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wojtek </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Szymon </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Krzysiu </t>
   </si>
 </sst>
 </file>
@@ -431,10 +440,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O272"/>
+  <dimension ref="A1:O322"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A229" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K260" sqref="K260"/>
+    <sheetView tabSelected="1" topLeftCell="A287" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K312" sqref="K312"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7438,7 +7447,7 @@
         <v>5</v>
       </c>
       <c r="H259">
-        <f t="shared" ref="H259:H272" si="4">IF(F259&gt;G259,1,2)</f>
+        <f t="shared" ref="H259:H322" si="4">IF(F259&gt;G259,1,2)</f>
         <v>1</v>
       </c>
     </row>
@@ -7789,6 +7798,1356 @@
         <v>8</v>
       </c>
       <c r="H272">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A273" s="1">
+        <v>45111</v>
+      </c>
+      <c r="B273" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C273" t="s">
+        <v>11</v>
+      </c>
+      <c r="D273" t="s">
+        <v>13</v>
+      </c>
+      <c r="E273" t="s">
+        <v>12</v>
+      </c>
+      <c r="F273">
+        <v>6</v>
+      </c>
+      <c r="G273">
+        <v>8</v>
+      </c>
+      <c r="H273">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="274" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A274" s="1">
+        <v>45111</v>
+      </c>
+      <c r="B274" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C274" t="s">
+        <v>8</v>
+      </c>
+      <c r="D274" t="s">
+        <v>11</v>
+      </c>
+      <c r="E274" t="s">
+        <v>13</v>
+      </c>
+      <c r="F274">
+        <v>7</v>
+      </c>
+      <c r="G274">
+        <v>8</v>
+      </c>
+      <c r="H274">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A275" s="1">
+        <v>45111</v>
+      </c>
+      <c r="B275" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C275" t="s">
+        <v>12</v>
+      </c>
+      <c r="D275" t="s">
+        <v>8</v>
+      </c>
+      <c r="E275" t="s">
+        <v>13</v>
+      </c>
+      <c r="F275">
+        <v>6</v>
+      </c>
+      <c r="G275">
+        <v>8</v>
+      </c>
+      <c r="H275">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A276" s="1">
+        <v>45111</v>
+      </c>
+      <c r="B276" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C276" t="s">
+        <v>12</v>
+      </c>
+      <c r="D276" t="s">
+        <v>13</v>
+      </c>
+      <c r="E276" t="s">
+        <v>11</v>
+      </c>
+      <c r="F276">
+        <v>6</v>
+      </c>
+      <c r="G276">
+        <v>8</v>
+      </c>
+      <c r="H276">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A277" s="1">
+        <v>45111</v>
+      </c>
+      <c r="B277" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C277" t="s">
+        <v>11</v>
+      </c>
+      <c r="D277" t="s">
+        <v>12</v>
+      </c>
+      <c r="E277" t="s">
+        <v>13</v>
+      </c>
+      <c r="F277">
+        <v>8</v>
+      </c>
+      <c r="G277">
+        <v>7</v>
+      </c>
+      <c r="H277">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="278" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A278" s="1">
+        <v>45111</v>
+      </c>
+      <c r="B278" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C278" t="s">
+        <v>8</v>
+      </c>
+      <c r="D278" t="s">
+        <v>12</v>
+      </c>
+      <c r="E278" t="s">
+        <v>11</v>
+      </c>
+      <c r="F278">
+        <v>8</v>
+      </c>
+      <c r="G278">
+        <v>4</v>
+      </c>
+      <c r="H278">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A279" s="1">
+        <v>45111</v>
+      </c>
+      <c r="B279" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C279" t="s">
+        <v>13</v>
+      </c>
+      <c r="D279" t="s">
+        <v>8</v>
+      </c>
+      <c r="E279" t="s">
+        <v>12</v>
+      </c>
+      <c r="F279">
+        <v>1</v>
+      </c>
+      <c r="G279">
+        <v>8</v>
+      </c>
+      <c r="H279">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="280" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A280" s="1">
+        <v>45111</v>
+      </c>
+      <c r="B280" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C280" t="s">
+        <v>13</v>
+      </c>
+      <c r="D280" t="s">
+        <v>12</v>
+      </c>
+      <c r="E280" t="s">
+        <v>11</v>
+      </c>
+      <c r="F280">
+        <v>8</v>
+      </c>
+      <c r="G280">
+        <v>5</v>
+      </c>
+      <c r="H280">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A281" s="1">
+        <v>45111</v>
+      </c>
+      <c r="B281" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C281" t="s">
+        <v>12</v>
+      </c>
+      <c r="D281" t="s">
+        <v>11</v>
+      </c>
+      <c r="E281" t="s">
+        <v>8</v>
+      </c>
+      <c r="F281">
+        <v>3</v>
+      </c>
+      <c r="G281">
+        <v>8</v>
+      </c>
+      <c r="H281">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="282" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A282" s="1">
+        <v>45111</v>
+      </c>
+      <c r="B282" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C282" t="s">
+        <v>8</v>
+      </c>
+      <c r="D282" t="s">
+        <v>11</v>
+      </c>
+      <c r="E282" t="s">
+        <v>13</v>
+      </c>
+      <c r="F282">
+        <v>8</v>
+      </c>
+      <c r="G282">
+        <v>3</v>
+      </c>
+      <c r="H282">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="283" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A283" s="1">
+        <v>45111</v>
+      </c>
+      <c r="B283" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C283" t="s">
+        <v>11</v>
+      </c>
+      <c r="D283" t="s">
+        <v>13</v>
+      </c>
+      <c r="E283" t="s">
+        <v>8</v>
+      </c>
+      <c r="F283">
+        <v>2</v>
+      </c>
+      <c r="G283">
+        <v>8</v>
+      </c>
+      <c r="H283">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="284" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A284" s="1">
+        <v>45111</v>
+      </c>
+      <c r="B284" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C284" t="s">
+        <v>12</v>
+      </c>
+      <c r="D284" t="s">
+        <v>8</v>
+      </c>
+      <c r="E284" t="s">
+        <v>11</v>
+      </c>
+      <c r="F284">
+        <v>2</v>
+      </c>
+      <c r="G284">
+        <v>8</v>
+      </c>
+      <c r="H284">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="285" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A285" s="1">
+        <v>45113</v>
+      </c>
+      <c r="B285" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C285" t="s">
+        <v>8</v>
+      </c>
+      <c r="D285" t="s">
+        <v>9</v>
+      </c>
+      <c r="E285" t="s">
+        <v>12</v>
+      </c>
+      <c r="F285">
+        <v>8</v>
+      </c>
+      <c r="G285">
+        <v>7</v>
+      </c>
+      <c r="H285">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="286" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A286" s="1">
+        <v>45113</v>
+      </c>
+      <c r="B286" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C286" t="s">
+        <v>13</v>
+      </c>
+      <c r="D286" t="s">
+        <v>8</v>
+      </c>
+      <c r="E286" t="s">
+        <v>13</v>
+      </c>
+      <c r="F286">
+        <v>8</v>
+      </c>
+      <c r="G286">
+        <v>7</v>
+      </c>
+      <c r="H286">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="287" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A287" s="1">
+        <v>45113</v>
+      </c>
+      <c r="B287" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C287" t="s">
+        <v>12</v>
+      </c>
+      <c r="D287" t="s">
+        <v>9</v>
+      </c>
+      <c r="E287" t="s">
+        <v>13</v>
+      </c>
+      <c r="F287">
+        <v>7</v>
+      </c>
+      <c r="G287">
+        <v>8</v>
+      </c>
+      <c r="H287">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="288" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A288" s="1">
+        <v>45120</v>
+      </c>
+      <c r="B288" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C288" t="s">
+        <v>13</v>
+      </c>
+      <c r="D288" t="s">
+        <v>9</v>
+      </c>
+      <c r="E288" t="s">
+        <v>11</v>
+      </c>
+      <c r="F288">
+        <v>8</v>
+      </c>
+      <c r="G288">
+        <v>6</v>
+      </c>
+      <c r="H288">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="289" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A289" s="1">
+        <v>45120</v>
+      </c>
+      <c r="B289" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C289" t="s">
+        <v>8</v>
+      </c>
+      <c r="D289" t="s">
+        <v>13</v>
+      </c>
+      <c r="E289" t="s">
+        <v>9</v>
+      </c>
+      <c r="F289">
+        <v>6</v>
+      </c>
+      <c r="G289">
+        <v>8</v>
+      </c>
+      <c r="H289">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="290" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A290" s="1">
+        <v>45120</v>
+      </c>
+      <c r="B290" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C290" t="s">
+        <v>9</v>
+      </c>
+      <c r="D290" t="s">
+        <v>13</v>
+      </c>
+      <c r="E290" t="s">
+        <v>11</v>
+      </c>
+      <c r="F290">
+        <v>8</v>
+      </c>
+      <c r="G290">
+        <v>5</v>
+      </c>
+      <c r="H290">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="291" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A291" s="1">
+        <v>45120</v>
+      </c>
+      <c r="B291" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C291" t="s">
+        <v>13</v>
+      </c>
+      <c r="D291" t="s">
+        <v>11</v>
+      </c>
+      <c r="E291" t="s">
+        <v>9</v>
+      </c>
+      <c r="F291">
+        <v>8</v>
+      </c>
+      <c r="G291">
+        <v>1</v>
+      </c>
+      <c r="H291">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="292" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A292" s="1">
+        <v>45120</v>
+      </c>
+      <c r="B292" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C292" t="s">
+        <v>13</v>
+      </c>
+      <c r="D292" t="s">
+        <v>8</v>
+      </c>
+      <c r="E292" t="s">
+        <v>11</v>
+      </c>
+      <c r="F292">
+        <v>7</v>
+      </c>
+      <c r="G292">
+        <v>8</v>
+      </c>
+      <c r="H292">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="293" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A293" s="1">
+        <v>45120</v>
+      </c>
+      <c r="B293" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C293" t="s">
+        <v>8</v>
+      </c>
+      <c r="D293" t="s">
+        <v>11</v>
+      </c>
+      <c r="E293" t="s">
+        <v>13</v>
+      </c>
+      <c r="F293">
+        <v>6</v>
+      </c>
+      <c r="G293">
+        <v>8</v>
+      </c>
+      <c r="H293">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="294" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A294" s="1">
+        <v>45120</v>
+      </c>
+      <c r="B294" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C294" t="s">
+        <v>9</v>
+      </c>
+      <c r="D294" t="s">
+        <v>8</v>
+      </c>
+      <c r="E294" t="s">
+        <v>13</v>
+      </c>
+      <c r="F294">
+        <v>5</v>
+      </c>
+      <c r="G294">
+        <v>8</v>
+      </c>
+      <c r="H294">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="295" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A295" s="1">
+        <v>45120</v>
+      </c>
+      <c r="B295" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C295" t="s">
+        <v>14</v>
+      </c>
+      <c r="D295" t="s">
+        <v>9</v>
+      </c>
+      <c r="E295" t="s">
+        <v>8</v>
+      </c>
+      <c r="F295">
+        <v>8</v>
+      </c>
+      <c r="G295">
+        <v>5</v>
+      </c>
+      <c r="H295">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="296" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A296" s="1">
+        <v>45125</v>
+      </c>
+      <c r="B296" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C296" t="s">
+        <v>12</v>
+      </c>
+      <c r="D296" t="s">
+        <v>11</v>
+      </c>
+      <c r="E296" t="s">
+        <v>8</v>
+      </c>
+      <c r="F296">
+        <v>5</v>
+      </c>
+      <c r="G296">
+        <v>8</v>
+      </c>
+      <c r="H296">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="297" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A297" s="1">
+        <v>45125</v>
+      </c>
+      <c r="B297" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C297" t="s">
+        <v>9</v>
+      </c>
+      <c r="D297" t="s">
+        <v>12</v>
+      </c>
+      <c r="E297" t="s">
+        <v>11</v>
+      </c>
+      <c r="F297">
+        <v>8</v>
+      </c>
+      <c r="G297">
+        <v>6</v>
+      </c>
+      <c r="H297">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="298" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A298" s="1">
+        <v>45125</v>
+      </c>
+      <c r="B298" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C298" t="s">
+        <v>8</v>
+      </c>
+      <c r="D298" t="s">
+        <v>11</v>
+      </c>
+      <c r="E298" t="s">
+        <v>9</v>
+      </c>
+      <c r="F298">
+        <v>8</v>
+      </c>
+      <c r="G298">
+        <v>3</v>
+      </c>
+      <c r="H298">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="299" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A299" s="1">
+        <v>45125</v>
+      </c>
+      <c r="B299" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C299" t="s">
+        <v>11</v>
+      </c>
+      <c r="D299" t="s">
+        <v>12</v>
+      </c>
+      <c r="E299" t="s">
+        <v>9</v>
+      </c>
+      <c r="F299">
+        <v>8</v>
+      </c>
+      <c r="G299">
+        <v>6</v>
+      </c>
+      <c r="H299">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="300" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A300" s="1">
+        <v>45125</v>
+      </c>
+      <c r="B300" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C300" t="s">
+        <v>12</v>
+      </c>
+      <c r="D300" t="s">
+        <v>9</v>
+      </c>
+      <c r="E300" t="s">
+        <v>8</v>
+      </c>
+      <c r="F300">
+        <v>6</v>
+      </c>
+      <c r="G300">
+        <v>8</v>
+      </c>
+      <c r="H300">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="301" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A301" s="1">
+        <v>45125</v>
+      </c>
+      <c r="B301" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C301" t="s">
+        <v>11</v>
+      </c>
+      <c r="D301" t="s">
+        <v>8</v>
+      </c>
+      <c r="E301" t="s">
+        <v>12</v>
+      </c>
+      <c r="F301">
+        <v>4</v>
+      </c>
+      <c r="G301">
+        <v>8</v>
+      </c>
+      <c r="H301">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="302" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A302" s="1">
+        <v>45125</v>
+      </c>
+      <c r="B302" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C302" t="s">
+        <v>9</v>
+      </c>
+      <c r="D302" t="s">
+        <v>11</v>
+      </c>
+      <c r="E302" t="s">
+        <v>8</v>
+      </c>
+      <c r="F302">
+        <v>8</v>
+      </c>
+      <c r="G302">
+        <v>6</v>
+      </c>
+      <c r="H302">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="303" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A303" s="1">
+        <v>45125</v>
+      </c>
+      <c r="B303" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C303" t="s">
+        <v>13</v>
+      </c>
+      <c r="D303" t="s">
+        <v>12</v>
+      </c>
+      <c r="E303" t="s">
+        <v>11</v>
+      </c>
+      <c r="F303">
+        <v>7</v>
+      </c>
+      <c r="G303">
+        <v>8</v>
+      </c>
+      <c r="H303">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="304" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A304" s="1">
+        <v>45125</v>
+      </c>
+      <c r="B304" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C304" t="s">
+        <v>13</v>
+      </c>
+      <c r="D304" t="s">
+        <v>9</v>
+      </c>
+      <c r="E304" t="s">
+        <v>8</v>
+      </c>
+      <c r="F304">
+        <v>6</v>
+      </c>
+      <c r="G304">
+        <v>8</v>
+      </c>
+      <c r="H304">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="305" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A305" s="1">
+        <v>45125</v>
+      </c>
+      <c r="B305" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C305" t="s">
+        <v>11</v>
+      </c>
+      <c r="D305" t="s">
+        <v>13</v>
+      </c>
+      <c r="E305" t="s">
+        <v>12</v>
+      </c>
+      <c r="F305">
+        <v>8</v>
+      </c>
+      <c r="G305">
+        <v>2</v>
+      </c>
+      <c r="H305">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="306" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A306" s="1">
+        <v>45125</v>
+      </c>
+      <c r="B306" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C306" t="s">
+        <v>9</v>
+      </c>
+      <c r="D306" t="s">
+        <v>13</v>
+      </c>
+      <c r="E306" t="s">
+        <v>11</v>
+      </c>
+      <c r="F306">
+        <v>2</v>
+      </c>
+      <c r="G306">
+        <v>8</v>
+      </c>
+      <c r="H306">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="307" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A307" s="1">
+        <v>45125</v>
+      </c>
+      <c r="B307" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C307" t="s">
+        <v>11</v>
+      </c>
+      <c r="D307" t="s">
+        <v>13</v>
+      </c>
+      <c r="E307" t="s">
+        <v>8</v>
+      </c>
+      <c r="F307">
+        <v>7</v>
+      </c>
+      <c r="G307">
+        <v>8</v>
+      </c>
+      <c r="H307">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="308" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A308" s="1">
+        <v>45125</v>
+      </c>
+      <c r="B308" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C308" t="s">
+        <v>12</v>
+      </c>
+      <c r="D308" t="s">
+        <v>11</v>
+      </c>
+      <c r="E308" t="s">
+        <v>13</v>
+      </c>
+      <c r="F308">
+        <v>8</v>
+      </c>
+      <c r="G308">
+        <v>7</v>
+      </c>
+      <c r="H308">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="309" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A309" s="1">
+        <v>45125</v>
+      </c>
+      <c r="B309" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C309" t="s">
+        <v>11</v>
+      </c>
+      <c r="D309" t="s">
+        <v>9</v>
+      </c>
+      <c r="E309" t="s">
+        <v>8</v>
+      </c>
+      <c r="F309">
+        <v>8</v>
+      </c>
+      <c r="G309">
+        <v>2</v>
+      </c>
+      <c r="H309">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="310" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A310" s="1">
+        <v>45127</v>
+      </c>
+      <c r="B310" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C310" t="s">
+        <v>11</v>
+      </c>
+      <c r="D310" t="s">
+        <v>9</v>
+      </c>
+      <c r="E310" t="s">
+        <v>8</v>
+      </c>
+      <c r="F310">
+        <v>2</v>
+      </c>
+      <c r="G310">
+        <v>8</v>
+      </c>
+      <c r="H310">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="311" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A311" s="1">
+        <v>45127</v>
+      </c>
+      <c r="B311" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C311" t="s">
+        <v>12</v>
+      </c>
+      <c r="D311" t="s">
+        <v>11</v>
+      </c>
+      <c r="E311" t="s">
+        <v>12</v>
+      </c>
+      <c r="F311">
+        <v>2</v>
+      </c>
+      <c r="G311">
+        <v>8</v>
+      </c>
+      <c r="H311">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="312" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A312" s="1">
+        <v>45127</v>
+      </c>
+      <c r="B312" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C312" t="s">
+        <v>11</v>
+      </c>
+      <c r="D312" t="s">
+        <v>9</v>
+      </c>
+      <c r="E312" t="s">
+        <v>12</v>
+      </c>
+      <c r="F312">
+        <v>8</v>
+      </c>
+      <c r="G312">
+        <v>6</v>
+      </c>
+      <c r="H312">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="313" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A313" s="1">
+        <v>45127</v>
+      </c>
+      <c r="B313" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C313" t="s">
+        <v>8</v>
+      </c>
+      <c r="D313" t="s">
+        <v>11</v>
+      </c>
+      <c r="E313" t="s">
+        <v>12</v>
+      </c>
+      <c r="F313">
+        <v>2</v>
+      </c>
+      <c r="G313">
+        <v>8</v>
+      </c>
+      <c r="H313">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="314" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A314" s="1">
+        <v>45127</v>
+      </c>
+      <c r="B314" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C314" t="s">
+        <v>9</v>
+      </c>
+      <c r="D314" t="s">
+        <v>11</v>
+      </c>
+      <c r="E314" t="s">
+        <v>8</v>
+      </c>
+      <c r="F314">
+        <v>8</v>
+      </c>
+      <c r="G314">
+        <v>7</v>
+      </c>
+      <c r="H314">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="315" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A315" s="1">
+        <v>45127</v>
+      </c>
+      <c r="B315" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C315" t="s">
+        <v>13</v>
+      </c>
+      <c r="D315" t="s">
+        <v>8</v>
+      </c>
+      <c r="E315" t="s">
+        <v>9</v>
+      </c>
+      <c r="F315">
+        <v>4</v>
+      </c>
+      <c r="G315">
+        <v>8</v>
+      </c>
+      <c r="H315">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="316" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A316" s="1">
+        <v>45127</v>
+      </c>
+      <c r="B316" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C316" t="s">
+        <v>13</v>
+      </c>
+      <c r="D316" t="s">
+        <v>11</v>
+      </c>
+      <c r="E316" t="s">
+        <v>13</v>
+      </c>
+      <c r="F316">
+        <v>8</v>
+      </c>
+      <c r="G316">
+        <v>1</v>
+      </c>
+      <c r="H316">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="317" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A317" s="1">
+        <v>45127</v>
+      </c>
+      <c r="B317" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C317" t="s">
+        <v>8</v>
+      </c>
+      <c r="D317" t="s">
+        <v>9</v>
+      </c>
+      <c r="E317" t="s">
+        <v>11</v>
+      </c>
+      <c r="F317">
+        <v>7</v>
+      </c>
+      <c r="G317">
+        <v>8</v>
+      </c>
+      <c r="H317">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="318" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A318" s="1">
+        <v>45127</v>
+      </c>
+      <c r="B318" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C318" t="s">
+        <v>8</v>
+      </c>
+      <c r="D318" t="s">
+        <v>9</v>
+      </c>
+      <c r="E318" t="s">
+        <v>12</v>
+      </c>
+      <c r="F318">
+        <v>8</v>
+      </c>
+      <c r="G318">
+        <v>5</v>
+      </c>
+      <c r="H318">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="319" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A319" s="1">
+        <v>45127</v>
+      </c>
+      <c r="B319" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C319" t="s">
+        <v>12</v>
+      </c>
+      <c r="D319" t="s">
+        <v>11</v>
+      </c>
+      <c r="E319" t="s">
+        <v>12</v>
+      </c>
+      <c r="F319">
+        <v>8</v>
+      </c>
+      <c r="G319">
+        <v>1</v>
+      </c>
+      <c r="H319">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="320" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A320" s="1">
+        <v>45127</v>
+      </c>
+      <c r="B320" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C320" t="s">
+        <v>9</v>
+      </c>
+      <c r="D320" t="s">
+        <v>12</v>
+      </c>
+      <c r="E320" t="s">
+        <v>11</v>
+      </c>
+      <c r="F320">
+        <v>6</v>
+      </c>
+      <c r="G320">
+        <v>8</v>
+      </c>
+      <c r="H320">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="321" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A321" s="1">
+        <v>45127</v>
+      </c>
+      <c r="B321" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C321" t="s">
+        <v>11</v>
+      </c>
+      <c r="D321" t="s">
+        <v>12</v>
+      </c>
+      <c r="E321" t="s">
+        <v>9</v>
+      </c>
+      <c r="F321">
+        <v>8</v>
+      </c>
+      <c r="G321">
+        <v>3</v>
+      </c>
+      <c r="H321">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="322" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A322" s="1">
+        <v>45127</v>
+      </c>
+      <c r="B322" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C322" t="s">
+        <v>8</v>
+      </c>
+      <c r="D322" t="s">
+        <v>9</v>
+      </c>
+      <c r="E322" t="s">
+        <v>11</v>
+      </c>
+      <c r="F322">
+        <v>4</v>
+      </c>
+      <c r="G322">
+        <v>8</v>
+      </c>
+      <c r="H322">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>

--- a/data/seuk_04.xlsx
+++ b/data/seuk_04.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\foosball\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{343131F4-54BB-4741-A4F0-E8F74F51CE61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4D8FAAB-A7A2-43CA-A708-A0163EC861C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1292" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1292" uniqueCount="14">
   <si>
     <t>﻿Date</t>
   </si>
@@ -67,15 +67,6 @@
   </si>
   <si>
     <t>Kuba</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wojtek </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Szymon </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Krzysiu </t>
   </si>
 </sst>
 </file>
@@ -442,8 +433,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O322"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A287" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K312" sqref="K312"/>
+    <sheetView tabSelected="1" topLeftCell="A289" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:E322"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8404,7 +8395,7 @@
         <v>13</v>
       </c>
       <c r="C295" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D295" t="s">
         <v>9</v>
@@ -8968,7 +8959,7 @@
         <v>45127</v>
       </c>
       <c r="B316" s="1" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C316" t="s">
         <v>13</v>
@@ -8995,7 +8986,7 @@
         <v>45127</v>
       </c>
       <c r="B317" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C317" t="s">
         <v>8</v>
